--- a/src/sample/pr_m_k.xlsx
+++ b/src/sample/pr_m_k.xlsx
@@ -423,7 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,59 +480,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -584,7 +587,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399A7A80-8FD6-4532-9E11-DCB0812B8893}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{399A7A80-8FD6-4532-9E11-DCB0812B8893}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,8 +917,8 @@
   </sheetPr>
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:K67"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -936,64 +939,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:18" ht="56.25" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:18" ht="92.25" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:18" ht="45" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="19"/>
       <c r="D5" s="21" t="s">
         <v>13</v>
@@ -1003,57 +1006,55 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:18" ht="45" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="19">
-        <v>2022</v>
-      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:18" ht="45" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:18" ht="50.25" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:18" ht="35.25" customHeight="1">
       <c r="B9" s="1"/>
@@ -1080,54 +1081,54 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="88.5" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="33" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="40.5" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -2081,24 +2082,24 @@
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" ht="28.2">
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39" t="s">
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="39"/>
+      <c r="F74" s="28"/>
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="28.2">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="37"/>
+      <c r="F75" s="22"/>
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" ht="28.2">
@@ -2106,19 +2107,19 @@
         <v>7</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="39"/>
+      <c r="F76" s="28"/>
       <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" ht="28.2">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F77" s="37"/>
+      <c r="F77" s="22"/>
       <c r="L77" s="4"/>
     </row>
     <row r="78" spans="1:12">
@@ -2198,13 +2199,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="23">
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A11:A12"/>
@@ -2215,12 +2215,13 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.23" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
